--- a/data/trans_camb/P2A_psíq_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,15</t>
+          <t>-0,01; 3,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,15</t>
+          <t>-1,35; 1,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,36</t>
+          <t>0,33; 3,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,57</t>
+          <t>0,31; 2,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,08</t>
+          <t>-0,3; 2,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,73</t>
+          <t>1,35; 3,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,41</t>
+          <t>0,44; 2,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,39</t>
+          <t>-0,41; 1,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,42</t>
+          <t>1,22; 3,36</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 225,66</t>
+          <t>-4,94; 236,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 85,27</t>
+          <t>-53,69; 99,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,84; 323,96</t>
+          <t>6,98; 276,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,07; 218,62</t>
+          <t>16,03; 253,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 194,55</t>
+          <t>-18,97; 195,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,57; 330,48</t>
+          <t>62,28; 348,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,14; 175,97</t>
+          <t>15,91; 165,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 104,03</t>
+          <t>-20,44; 97,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,13; 253,0</t>
+          <t>53,8; 242,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,44</t>
+          <t>0,09; 1,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,8</t>
+          <t>-0,27; 0,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,11</t>
+          <t>0,61; 2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,48</t>
+          <t>0,22; 1,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>-0,02; 1,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 22,6</t>
+          <t>1,81; 25,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,3</t>
+          <t>0,31; 1,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,93</t>
+          <t>0,04; 0,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 16,68</t>
+          <t>1,52; 13,82</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 556,59</t>
+          <t>-3,42; 551,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,85; 350,75</t>
+          <t>-40,07; 353,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,97; 773,36</t>
+          <t>43,3; 949,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 340,6</t>
+          <t>17,65; 370,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 349,61</t>
+          <t>-3,97; 409,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>209,52; 6952,05</t>
+          <t>206,68; 5730,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,71; 305,51</t>
+          <t>30,1; 308,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 210,5</t>
+          <t>-0,06; 227,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>225,92; 3506,63</t>
+          <t>221,6; 3009,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,89</t>
+          <t>0,1; 2,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 0,94</t>
+          <t>-0,32; 0,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,8</t>
+          <t>1,03; 4,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,18</t>
+          <t>-1,21; 2,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,82</t>
+          <t>-1,81; 0,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,17</t>
+          <t>-0,68; 2,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,0</t>
+          <t>-0,11; 1,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,58</t>
+          <t>-0,85; 0,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,56</t>
+          <t>0,66; 2,55</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,93; 397,35</t>
+          <t>-67,22; 450,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,15; 167,51</t>
+          <t>-86,3; 154,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 374,49</t>
+          <t>-35,44; 312,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 607,82</t>
+          <t>-28,0; 498,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,39; 217,72</t>
+          <t>-79,19; 171,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,58; 699,25</t>
+          <t>40,82; 724,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,6</t>
+          <t>0,3; 1,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,56</t>
+          <t>-0,49; 0,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,04</t>
+          <t>0,76; 2,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,62</t>
+          <t>0,47; 1,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,07</t>
+          <t>-0,08; 1,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 12,71</t>
+          <t>1,62; 18,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,42</t>
+          <t>0,54; 1,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,65</t>
+          <t>-0,11; 0,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 9,31</t>
+          <t>1,47; 9,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,65; 224,53</t>
+          <t>21,31; 228,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 88,7</t>
+          <t>-40,16; 72,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,19; 303,94</t>
+          <t>60,06; 308,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,05; 194,58</t>
+          <t>29,62; 190,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 123,04</t>
+          <t>-8,62; 130,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>138,28; 1509,31</t>
+          <t>134,75; 1536,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,47; 169,05</t>
+          <t>44,8; 172,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 79,03</t>
+          <t>-9,95; 78,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>135,65; 992,26</t>
+          <t>138,06; 1127,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_psíq_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Estudios-trans_camb.xlsx
@@ -642,37 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,14</t>
         </is>
       </c>
     </row>
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,83</t>
+          <t>0,25; 3,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,67</t>
+          <t>0,22; 2,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,07</t>
+          <t>-0,39; 2,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,72</t>
+          <t>1,2; 3,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,29</t>
+          <t>0,4; 2,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,31</t>
+          <t>-0,47; 1,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,36</t>
+          <t>1,06; 3,17</t>
         </is>
       </c>
     </row>
@@ -748,37 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>102,35%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>82,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,41%</t>
+          <t>48,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>163,2%</t>
+          <t>145,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>80,86%</t>
+          <t>76,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>132,73%</t>
+          <t>121,08%</t>
         </is>
       </c>
     </row>
@@ -801,37 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 276,03</t>
+          <t>3,88; 262,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,03; 253,34</t>
+          <t>10,58; 232,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 195,84</t>
+          <t>-23,51; 176,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,28; 348,27</t>
+          <t>51,79; 319,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,91; 165,28</t>
+          <t>13,3; 153,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 97,81</t>
+          <t>-22,98; 90,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,8; 242,74</t>
+          <t>46,63; 223,35</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>5,97</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,06</t>
+          <t>0,37; 1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 1,49</t>
+          <t>0,06; 1,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 25,53</t>
+          <t>1,68; 39,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,94</t>
+          <t>0,08; 0,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 13,82</t>
+          <t>1,32; 21,58</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>267,94%</t>
+          <t>237,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,86%</t>
+          <t>107,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>989,33%</t>
+          <t>1566,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>83,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>698,13%</t>
+          <t>1001,05%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,3; 949,0</t>
+          <t>22,05; 888,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 409,05</t>
+          <t>1,41; 428,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>206,68; 5730,84</t>
+          <t>203,24; 10236,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 227,51</t>
+          <t>5,0; 238,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>221,6; 3009,78</t>
+          <t>201,3; 4924,77</t>
         </is>
       </c>
     </row>
@@ -1074,37 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,43</t>
         </is>
       </c>
     </row>
@@ -1127,37 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,01</t>
+          <t>0,95; 3,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,32</t>
+          <t>-1,59; 2,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,81</t>
+          <t>-2,13; 0,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,11</t>
+          <t>-0,85; 2,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,93</t>
+          <t>-0,23; 1,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,54</t>
+          <t>-0,91; 0,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,55</t>
+          <t>0,5; 2,53</t>
         </is>
       </c>
     </row>
@@ -1180,37 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1332,87%</t>
+          <t>1232,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-32,19%</t>
+          <t>-40,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>59,5%</t>
+          <t>47,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>112,4%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>-20,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>216,21%</t>
+          <t>177,83%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,22; 450,08</t>
+          <t>-70,98; 262,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,3; 154,93</t>
+          <t>-87,85; 118,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 312,19</t>
+          <t>-38,32; 257,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 498,79</t>
+          <t>-32,23; 438,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,19; 171,35</t>
+          <t>-78,36; 145,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,82; 724,74</t>
+          <t>29,21; 626,46</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1290,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>4,25</t>
         </is>
       </c>
     </row>
@@ -1343,37 +1343,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,08</t>
+          <t>0,56; 1,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,63</t>
+          <t>0,4; 1,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,09</t>
+          <t>-0,13; 1,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 18,12</t>
+          <t>1,5; 29,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,43</t>
+          <t>0,52; 1,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,68</t>
+          <t>-0,14; 0,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 9,65</t>
+          <t>1,27; 15,28</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>153,44%</t>
+          <t>132,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>78,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>418,91%</t>
+          <t>609,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>308,84%</t>
+          <t>408,81%</t>
         </is>
       </c>
     </row>
@@ -1449,37 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,06; 308,89</t>
+          <t>46,39; 282,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,62; 190,07</t>
+          <t>25,75; 174,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 130,24</t>
+          <t>-9,32; 120,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>134,75; 1536,53</t>
+          <t>117,13; 2413,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,8; 172,44</t>
+          <t>40,66; 160,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 78,58</t>
+          <t>-11,45; 75,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>138,06; 1127,45</t>
+          <t>118,75; 1765,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_psíq_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,19</t>
+          <t>-0,05; 2,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,27</t>
+          <t>-1,48; 1,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,58</t>
+          <t>0,27; 3,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,59</t>
+          <t>0,23; 2,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,03</t>
+          <t>-0,23; 2,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,57</t>
+          <t>0,97; 3,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,28</t>
+          <t>0,35; 2,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,25</t>
+          <t>-0,47; 1,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,17</t>
+          <t>1,03; 3,19</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 236,34</t>
+          <t>-4,84; 207,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,69; 99,69</t>
+          <t>-56,58; 84,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 262,57</t>
+          <t>4,97; 250,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,58; 232,09</t>
+          <t>9,87; 236,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 176,49</t>
+          <t>-13,65; 178,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,79; 319,84</t>
+          <t>46,46; 332,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 153,91</t>
+          <t>13,57; 167,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 90,62</t>
+          <t>-21,33; 91,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,63; 223,35</t>
+          <t>46,33; 220,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,4</t>
+          <t>0,12; 1,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,87</t>
+          <t>-0,3; 0,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,96</t>
+          <t>0,34; 1,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,6</t>
+          <t>0,16; 1,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,55</t>
+          <t>0,02; 1,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 39,43</t>
+          <t>1,7; 35,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,29</t>
+          <t>0,33; 1,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,95</t>
+          <t>0,01; 0,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 21,58</t>
+          <t>1,35; 22,25</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 551,82</t>
+          <t>3,42; 515,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,07; 353,67</t>
+          <t>-46,2; 346,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,05; 888,7</t>
+          <t>24,14; 770,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 370,73</t>
+          <t>8,44; 339,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 428,31</t>
+          <t>-2,0; 361,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>203,24; 10236,55</t>
+          <t>215,3; 8643,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,1; 308,25</t>
+          <t>33,08; 315,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 238,35</t>
+          <t>-2,75; 236,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>201,3; 4924,77</t>
+          <t>209,63; 6164,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,94</t>
+          <t>0,18; 3,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,98</t>
+          <t>-0,31; 0,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,94</t>
+          <t>0,99; 3,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,11</t>
+          <t>-1,34; 2,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,65</t>
+          <t>-2,05; 0,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,24</t>
+          <t>-0,83; 2,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,85</t>
+          <t>-0,34; 1,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,49</t>
+          <t>-1,06; 0,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,53</t>
+          <t>0,42; 2,48</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,98; 262,68</t>
+          <t>-65,68; 306,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-87,85; 118,29</t>
+          <t>-86,45; 98,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 257,98</t>
+          <t>-40,55; 320,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 438,0</t>
+          <t>-30,66; 449,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-78,36; 145,96</t>
+          <t>-78,26; 140,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,21; 626,46</t>
+          <t>28,08; 527,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,56</t>
+          <t>0,34; 1,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,5</t>
+          <t>-0,45; 0,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,92</t>
+          <t>0,55; 1,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,57</t>
+          <t>0,37; 1,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,03</t>
+          <t>-0,05; 1,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 29,49</t>
+          <t>1,44; 24,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,41</t>
+          <t>0,53; 1,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 0,67</t>
+          <t>-0,14; 0,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 15,28</t>
+          <t>1,29; 14,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,31; 228,78</t>
+          <t>25,19; 223,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,16; 72,23</t>
+          <t>-38,18; 77,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>46,39; 282,76</t>
+          <t>42,17; 262,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,75; 174,04</t>
+          <t>23,66; 172,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 120,12</t>
+          <t>-4,55; 113,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>117,13; 2413,6</t>
+          <t>110,96; 2094,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>40,66; 160,92</t>
+          <t>42,24; 160,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 75,21</t>
+          <t>-12,01; 71,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>118,75; 1765,79</t>
+          <t>114,1; 1524,99</t>
         </is>
       </c>
     </row>
